--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CCB26168-0531-4B4E-8975-95AED041ADF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC3C28-22D1-3E42-AEED-3135F553B386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>ColNames</t>
   </si>
@@ -68,9 +68,6 @@
     <t>2SD (ext.), Er (2S), 2SD, Std_1SD</t>
   </si>
   <si>
-    <t>2SE (int.), d18O-2SE, Er(2S)</t>
-  </si>
-  <si>
     <t>16O (Gcps), 16O(E9 cps), 16O     (E9 cps), 16O (E9), 16O(E9)</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>16OH/16O, 16O1H/16O</t>
-  </si>
-  <si>
     <t>12CE6</t>
   </si>
   <si>
@@ -113,39 +107,21 @@
     <t>d13Cmeas</t>
   </si>
   <si>
-    <t>13/12_raw,</t>
-  </si>
-  <si>
     <t>13Ccps</t>
   </si>
   <si>
-    <t>CHC</t>
-  </si>
-  <si>
-    <t>13CH/13C</t>
-  </si>
-  <si>
     <t>O16Mcps</t>
   </si>
   <si>
     <t>O16(E6)</t>
   </si>
   <si>
-    <t>SD2intC</t>
-  </si>
-  <si>
-    <t>13/12_2SE, d13C-2SE</t>
-  </si>
-  <si>
     <t>DTFA-X, DTFA X</t>
   </si>
   <si>
     <t>DTFA-Y, DTFA Y</t>
   </si>
   <si>
-    <t>13C (cps),</t>
-  </si>
-  <si>
     <t>IMF</t>
   </si>
   <si>
@@ -179,9 +155,6 @@
     <t>DTFAY</t>
   </si>
   <si>
-    <t>OHO</t>
-  </si>
-  <si>
     <t>\u03B418O \u2030 VSMOW vs UWC-3, d18O \u2030 VSMOW, d18_VSMOW, d18O [VSMOW],d18 VSMOW, \u03B418O \u2030 VSMOW, &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3, δ18O ‰ VSMOW vs UWC-3</t>
   </si>
   <si>
@@ -189,6 +162,21 @@
   </si>
   <si>
     <t>d18O ‰ raw, d18O_m, d18O_meas, d18_c, d18O meas, d18O ‰ measured, \u03B418O ‰ measured, &lt;U+03B4&gt;18O &lt;U+2030&gt; measured, δ18O ‰ measured</t>
+  </si>
+  <si>
+    <t>Hyd</t>
+  </si>
+  <si>
+    <t>16OH/16O, 16O1H/16O, 13CH/13C</t>
+  </si>
+  <si>
+    <t>2SE (int.), d18O-2SE, Er(2S), 13/12_2SE, d13C-2SE</t>
+  </si>
+  <si>
+    <t>13/12_raw</t>
+  </si>
+  <si>
+    <t>13C (cps)</t>
   </si>
 </sst>
 </file>
@@ -540,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -609,10 +597,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -620,10 +608,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -631,21 +619,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -653,10 +641,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -664,10 +652,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -678,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -686,10 +674,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -697,134 +685,112 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BC3C28-22D1-3E42-AEED-3135F553B386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEA1827D-761B-F345-BF23-243B372A3278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>ColNames</t>
   </si>
@@ -177,6 +177,105 @@
   </si>
   <si>
     <t>13C (cps)</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>permille</t>
+  </si>
+  <si>
+    <t>Gcps</t>
+  </si>
+  <si>
+    <t>nA</t>
+  </si>
+  <si>
+    <t>Gcps/nA</t>
+  </si>
+  <si>
+    <t>permille_VSMOW</t>
+  </si>
+  <si>
+    <t>cps</t>
+  </si>
+  <si>
+    <t>Mcps</t>
+  </si>
+  <si>
+    <t>micrometers</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>AMU</t>
+  </si>
+  <si>
+    <t>permille_VPDB</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>AnalysisLength</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>GROUPNUM</t>
+  </si>
+  <si>
+    <t>GUESS.SAMP</t>
+  </si>
+  <si>
+    <t>UNIQUEGRP</t>
+  </si>
+  <si>
+    <t>REL_YIELD</t>
+  </si>
+  <si>
+    <t>REL_Hyd</t>
+  </si>
+  <si>
+    <t>BRACKET2SD</t>
+  </si>
+  <si>
+    <t>STDiso</t>
+  </si>
+  <si>
+    <t>RegexSTD</t>
+  </si>
+  <si>
+    <t>HydRatio</t>
+  </si>
+  <si>
+    <t>Date-time</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>Sample-std</t>
+  </si>
+  <si>
+    <t>spacedgroup</t>
+  </si>
+  <si>
+    <t>ClusterSample</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>HydRatio-ratio</t>
+  </si>
+  <si>
+    <t>RunStd</t>
+  </si>
+  <si>
+    <t>StdGroup</t>
   </si>
 </sst>
 </file>
@@ -528,19 +627,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="142.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,8 +650,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -562,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -573,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -583,8 +686,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -594,8 +700,11 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -605,8 +714,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -616,8 +728,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -627,8 +742,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -638,8 +756,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -649,8 +770,11 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -660,8 +784,11 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -671,8 +798,11 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -682,8 +812,11 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -693,8 +826,11 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -704,8 +840,11 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -715,8 +854,11 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -726,8 +868,11 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -737,8 +882,11 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -748,8 +896,11 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -759,8 +910,11 @@
       <c r="C20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -770,8 +924,11 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -781,8 +938,11 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -791,6 +951,97 @@
       </c>
       <c r="C23" t="s">
         <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEA1827D-761B-F345-BF23-243B372A3278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5458DE-7604-0841-828B-6A0A45BA59F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1440" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>ColNames</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>StdGroup</t>
+  </si>
+  <si>
+    <t>ascfilename</t>
+  </si>
+  <si>
+    <t>AnalysisName</t>
   </si>
 </sst>
 </file>
@@ -629,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,6 +670,9 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -674,6 +683,9 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5458DE-7604-0841-828B-6A0A45BA59F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA415F4-175B-F443-9E17-B65D16F6C823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="220" yWindow="680" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>ColNames</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>2SD (ext.), Er (2S), 2SD, Std_1SD</t>
-  </si>
-  <si>
     <t>16O (Gcps), 16O(E9 cps), 16O     (E9 cps), 16O (E9), 16O(E9)</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>2SE (int.), d18O-2SE, Er(2S), 13/12_2SE, d13C-2SE</t>
   </si>
   <si>
-    <t>13/12_raw</t>
-  </si>
-  <si>
     <t>13C (cps)</t>
   </si>
   <si>
@@ -278,16 +272,34 @@
     <t>StdGroup</t>
   </si>
   <si>
-    <t>ascfilename</t>
-  </si>
-  <si>
-    <t>AnalysisName</t>
+    <t>d13C_m</t>
+  </si>
+  <si>
+    <t>Yield 1MHz/nA</t>
+  </si>
+  <si>
+    <t>d13CVPDB</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>2SD (ext.), Er (2S), 2SD, Std_1SD, Er(2S)</t>
+  </si>
+  <si>
+    <t>YieldMHz</t>
+  </si>
+  <si>
+    <t>MHz/nA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -317,8 +329,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,20 +646,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,10 +670,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -668,13 +681,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -682,378 +692,414 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>67</v>
       </c>
       <c r="D31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA415F4-175B-F443-9E17-B65D16F6C823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6E212-D5F8-1946-BBB1-FF940E90D298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="680" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>ColNames</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>MHz/nA</t>
+  </si>
+  <si>
+    <t>d18O3</t>
   </si>
 </sst>
 </file>
@@ -648,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF6E212-D5F8-1946-BBB1-FF940E90D298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7432D35-29B1-994E-9A57-4287162C74B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>ColNames</t>
   </si>
@@ -272,6 +272,9 @@
     <t>StdGroup</t>
   </si>
   <si>
+    <t>d13_C</t>
+  </si>
+  <si>
     <t>d13C_m</t>
   </si>
   <si>
@@ -279,9 +282,6 @@
   </si>
   <si>
     <t>d13CVPDB</t>
-  </si>
-  <si>
-    <t>d13C</t>
   </si>
   <si>
     <t>2SD (ext.), Er (2S), 2SD, Std_1SD, Er(2S)</t>
@@ -651,14 +651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -805,7 +805,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -980,7 +980,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -995,9 +995,6 @@
       </c>
       <c r="B24" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>52</v>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7432D35-29B1-994E-9A57-4287162C74B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F5F4D4-8275-9D45-A95E-2985F4A42E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>16OH/16O, 16O1H/16O, 13CH/13C</t>
   </si>
   <si>
-    <t>2SE (int.), d18O-2SE, Er(2S), 13/12_2SE, d13C-2SE</t>
-  </si>
-  <si>
     <t>13C (cps)</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>d18O3</t>
+  </si>
+  <si>
+    <t>2SE (int.), d18O-2SE, Er(2S), d13C-2SE</t>
   </si>
 </sst>
 </file>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -719,13 +719,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -762,13 +762,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,22 +796,22 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -826,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -838,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -870,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -885,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -900,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -915,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -943,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,21 +957,21 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -980,13 +980,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -994,10 +994,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,98 +1008,98 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Library/Containers/com.microsoft.Excel/Data/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F5F4D4-8275-9D45-A95E-2985F4A42E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9F5FC-5959-5C41-8091-B667EFF03EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>ColNames</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>2SD (ext.), Er (2S), 2SD, Std_1SD</t>
+  </si>
+  <si>
     <t>16O (Gcps), 16O(E9 cps), 16O     (E9 cps), 16O (E9), 16O(E9)</t>
   </si>
   <si>
@@ -167,6 +170,12 @@
     <t>16OH/16O, 16O1H/16O, 13CH/13C</t>
   </si>
   <si>
+    <t>2SE (int.), d18O-2SE, Er(2S), 13/12_2SE, d13C-2SE</t>
+  </si>
+  <si>
+    <t>13/12_raw</t>
+  </si>
+  <si>
     <t>13C (cps)</t>
   </si>
   <si>
@@ -269,40 +278,16 @@
     <t>StdGroup</t>
   </si>
   <si>
-    <t>d13_C</t>
-  </si>
-  <si>
-    <t>d13C_m</t>
-  </si>
-  <si>
-    <t>Yield 1MHz/nA</t>
-  </si>
-  <si>
-    <t>d13CVPDB</t>
-  </si>
-  <si>
-    <t>2SD (ext.), Er (2S), 2SD, Std_1SD, Er(2S)</t>
-  </si>
-  <si>
-    <t>YieldMHz</t>
-  </si>
-  <si>
-    <t>MHz/nA</t>
-  </si>
-  <si>
-    <t>d18O3</t>
-  </si>
-  <si>
-    <t>2SE (int.), d18O-2SE, Er(2S), d13C-2SE</t>
+    <t>ascfilename</t>
+  </si>
+  <si>
+    <t>AnalysisName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -332,9 +317,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,20 +633,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -684,10 +668,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -695,411 +682,378 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
         <v>49</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Library/Containers/com.microsoft.Excel/Data/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A9F5FC-5959-5C41-8091-B667EFF03EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F9CEE-6F7A-4A4C-9A0A-6097D4E8EB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1440" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>ColNames</t>
   </si>
@@ -636,7 +636,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -947,9 +947,6 @@
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
@@ -960,9 +957,6 @@
       </c>
       <c r="B23" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Library/Containers/com.microsoft.Excel/Data/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600F9CEE-6F7A-4A4C-9A0A-6097D4E8EB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFED080-B807-B948-AE70-077C513ABAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>ColNames</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>2SD (ext.), Er (2S), 2SD, Std_1SD</t>
-  </si>
-  <si>
     <t>16O (Gcps), 16O(E9 cps), 16O     (E9 cps), 16O (E9), 16O(E9)</t>
   </si>
   <si>
@@ -170,12 +167,6 @@
     <t>16OH/16O, 16O1H/16O, 13CH/13C</t>
   </si>
   <si>
-    <t>2SE (int.), d18O-2SE, Er(2S), 13/12_2SE, d13C-2SE</t>
-  </si>
-  <si>
-    <t>13/12_raw</t>
-  </si>
-  <si>
     <t>13C (cps)</t>
   </si>
   <si>
@@ -278,16 +269,43 @@
     <t>StdGroup</t>
   </si>
   <si>
-    <t>ascfilename</t>
-  </si>
-  <si>
-    <t>AnalysisName</t>
+    <t>d13_C</t>
+  </si>
+  <si>
+    <t>d13C_m</t>
+  </si>
+  <si>
+    <t>Yield 1MHz/nA</t>
+  </si>
+  <si>
+    <t>d13CVPDB</t>
+  </si>
+  <si>
+    <t>2SD (ext.), Er (2S), 2SD, Std_1SD, Er(2S)</t>
+  </si>
+  <si>
+    <t>YieldMHz</t>
+  </si>
+  <si>
+    <t>MHz/nA</t>
+  </si>
+  <si>
+    <t>d18O3</t>
+  </si>
+  <si>
+    <t>2SE (int.), d18O-2SE, Er(2S), d13C-2SE</t>
+  </si>
+  <si>
+    <t>Filename</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -317,8 +335,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,20 +652,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="95.5" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -668,13 +687,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -682,372 +701,414 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBFED080-B807-B948-AE70-077C513ABAE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995768D-D10A-5046-AF03-3B5EF31E9255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t>ColNames</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>Filename</t>
+  </si>
+  <si>
+    <t>Date.x</t>
+  </si>
+  <si>
+    <t>Time.x</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1111,6 +1117,22 @@
         <v>76</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E995768D-D10A-5046-AF03-3B5EF31E9255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279A001-02D4-D743-808A-5568EEAA9993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>ColNames</t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Time.x</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>INDEXexcel</t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,6 +1139,14 @@
         <v>34</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279A001-02D4-D743-808A-5568EEAA9993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417FB6F2-F124-5044-A238-ECC10A2FDE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
   <si>
     <t>ColNames</t>
   </si>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>INDEXexcel</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Numeric</t>
   </si>
 </sst>
 </file>
@@ -318,10 +327,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,9 +363,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,6 +707,9 @@
       <c r="D1" t="s">
         <v>45</v>
       </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -704,6 +724,9 @@
       <c r="D2" t="s">
         <v>87</v>
       </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -718,6 +741,9 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -733,6 +759,9 @@
       <c r="D4" t="s">
         <v>50</v>
       </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -748,6 +777,9 @@
       <c r="D5" t="s">
         <v>46</v>
       </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -763,6 +795,9 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -777,6 +812,9 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
+      <c r="E7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -791,6 +829,9 @@
       <c r="D8" t="s">
         <v>46</v>
       </c>
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -805,6 +846,9 @@
       <c r="D9" t="s">
         <v>47</v>
       </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -819,6 +863,9 @@
       <c r="D10" t="s">
         <v>48</v>
       </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -834,6 +881,9 @@
       <c r="D11" t="s">
         <v>84</v>
       </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -849,6 +899,9 @@
       <c r="D12" t="s">
         <v>49</v>
       </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,6 +917,9 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -878,6 +934,9 @@
       <c r="D14" t="s">
         <v>34</v>
       </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -893,6 +952,9 @@
       <c r="D15" t="s">
         <v>53</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -908,6 +970,9 @@
       <c r="D16" t="s">
         <v>53</v>
       </c>
+      <c r="E16" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -923,6 +988,9 @@
       <c r="D17" t="s">
         <v>54</v>
       </c>
+      <c r="E17" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -938,6 +1006,9 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -952,6 +1023,9 @@
       <c r="D19" t="s">
         <v>55</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -966,6 +1040,9 @@
       <c r="D20" t="s">
         <v>68</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -980,6 +1057,9 @@
       <c r="D21" t="s">
         <v>52</v>
       </c>
+      <c r="E21" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -994,6 +1074,9 @@
       <c r="D22" t="s">
         <v>56</v>
       </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,6 +1092,9 @@
       <c r="D23" t="s">
         <v>56</v>
       </c>
+      <c r="E23" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1020,6 +1106,9 @@
       <c r="D24" t="s">
         <v>51</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1034,6 +1123,9 @@
       <c r="D25" t="s">
         <v>52</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1042,6 +1134,9 @@
       <c r="D26" t="s">
         <v>69</v>
       </c>
+      <c r="E26" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1050,6 +1145,9 @@
       <c r="D27" t="s">
         <v>70</v>
       </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1058,6 +1156,9 @@
       <c r="D28" t="s">
         <v>71</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1066,6 +1167,9 @@
       <c r="D29" t="s">
         <v>72</v>
       </c>
+      <c r="E29" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1074,6 +1178,9 @@
       <c r="D30" t="s">
         <v>73</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -1082,6 +1189,9 @@
       <c r="D31" t="s">
         <v>77</v>
       </c>
+      <c r="E31" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1090,61 +1200,85 @@
       <c r="D32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="D33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
       <c r="D36" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>89</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>90</v>
       </c>
       <c r="D39" t="s">
         <v>91</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417FB6F2-F124-5044-A238-ECC10A2FDE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7F9F2-5144-CF40-BDE3-46D512C8D686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -684,7 +684,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,7 +772,7 @@
         <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7F9F2-5144-CF40-BDE3-46D512C8D686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F85B6-D528-424D-B726-F6B06BC3788C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -293,9 +293,6 @@
     <t>d18O3</t>
   </si>
   <si>
-    <t>2SE (int.), d18O-2SE, Er(2S), d13C-2SE</t>
-  </si>
-  <si>
     <t>Filename</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Numeric</t>
+  </si>
+  <si>
+    <t>2SE (int.), d18O-2SE, d13C-2SE</t>
   </si>
 </sst>
 </file>
@@ -708,7 +708,7 @@
         <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,10 +722,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -760,7 +760,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -778,7 +778,7 @@
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -796,7 +796,7 @@
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -830,7 +830,7 @@
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -882,7 +882,7 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -900,7 +900,7 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -953,7 +953,7 @@
         <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -971,7 +971,7 @@
         <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -989,7 +989,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1007,7 +1007,7 @@
         <v>54</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,7 +1024,7 @@
         <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1093,7 +1093,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1107,7 +1107,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>69</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
         <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>77</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1212,7 +1212,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1245,40 +1245,40 @@
         <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
         <v>90</v>
       </c>
-      <c r="D39" t="s">
-        <v>91</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9F85B6-D528-424D-B726-F6B06BC3788C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D673D1C1-CD0B-3B4C-B8C6-0A03072CCDC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>DTFAY</t>
   </si>
   <si>
-    <t>\u03B418O \u2030 VSMOW vs UWC-3, d18O \u2030 VSMOW, d18_VSMOW, d18O [VSMOW],d18 VSMOW, \u03B418O \u2030 VSMOW, &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3, δ18O ‰ VSMOW vs UWC-3</t>
-  </si>
-  <si>
     <t>Bias, IMF, Mass Bias (&lt;U+2030&gt;), Mass Bias (‰)</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>2SE (int.), d18O-2SE, d13C-2SE</t>
+  </si>
+  <si>
+    <t>\u03B418O \u2030 VSMOW vs UWC-3, d18O \u2030 VSMOW, d18_VSMOW, d18O [VSMOW],d18 VSMOW, \u03B418O \u2030 VSMOW, &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3, δ18O ‰ VSMOW vs UWC-3, d18O ‰ VSMOW, δ18O ‰ VSMOW</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,10 +705,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,10 +722,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -751,16 +751,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -769,16 +769,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -787,16 +787,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -804,16 +804,16 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -821,16 +821,16 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -844,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -861,28 +861,28 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -897,10 +897,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -968,10 +968,10 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -986,10 +986,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1004,10 +1004,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1021,27 +1021,27 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1055,27 +1055,27 @@
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1084,16 +1084,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,13 +1101,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,167 +1118,167 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
         <v>89</v>
       </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D673D1C1-CD0B-3B4C-B8C6-0A03072CCDC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573F6DE-58EE-1C4A-B936-B54EAAE292AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>ColNames</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Y, y</t>
   </si>
   <si>
-    <t>Mass</t>
-  </si>
-  <si>
     <t>12CE6</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>bits</t>
-  </si>
-  <si>
-    <t>AMU</t>
   </si>
   <si>
     <t>permille_VPDB</t>
@@ -681,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,10 +716,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -751,16 +745,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -769,73 +763,73 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -844,15 +838,15 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -861,34 +855,34 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -897,10 +891,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -918,12 +912,12 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -932,16 +926,16 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -950,16 +944,16 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -968,132 +962,129 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,184 +1092,170 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" t="s">
         <v>87</v>
       </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573F6DE-58EE-1C4A-B936-B54EAAE292AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5458DE-7604-0841-828B-6A0A45BA59F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="27240" windowHeight="15440" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>ColNames</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>2SD (ext.), Er (2S), 2SD, Std_1SD</t>
+  </si>
+  <si>
     <t>16O (Gcps), 16O(E9 cps), 16O     (E9 cps), 16O (E9), 16O(E9)</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>Y, y</t>
   </si>
   <si>
+    <t>Mass</t>
+  </si>
+  <si>
     <t>12CE6</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t>DTFAY</t>
   </si>
   <si>
+    <t>\u03B418O \u2030 VSMOW vs UWC-3, d18O \u2030 VSMOW, d18_VSMOW, d18O [VSMOW],d18 VSMOW, \u03B418O \u2030 VSMOW, &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3, δ18O ‰ VSMOW vs UWC-3</t>
+  </si>
+  <si>
     <t>Bias, IMF, Mass Bias (&lt;U+2030&gt;), Mass Bias (‰)</t>
   </si>
   <si>
@@ -161,6 +170,12 @@
     <t>16OH/16O, 16O1H/16O, 13CH/13C</t>
   </si>
   <si>
+    <t>2SE (int.), d18O-2SE, Er(2S), 13/12_2SE, d13C-2SE</t>
+  </si>
+  <si>
+    <t>13/12_raw</t>
+  </si>
+  <si>
     <t>13C (cps)</t>
   </si>
   <si>
@@ -194,6 +209,9 @@
     <t>bits</t>
   </si>
   <si>
+    <t>AMU</t>
+  </si>
+  <si>
     <t>permille_VPDB</t>
   </si>
   <si>
@@ -260,78 +278,20 @@
     <t>StdGroup</t>
   </si>
   <si>
-    <t>d13_C</t>
-  </si>
-  <si>
-    <t>d13C_m</t>
-  </si>
-  <si>
-    <t>Yield 1MHz/nA</t>
-  </si>
-  <si>
-    <t>d13CVPDB</t>
-  </si>
-  <si>
-    <t>2SD (ext.), Er (2S), 2SD, Std_1SD, Er(2S)</t>
-  </si>
-  <si>
-    <t>YieldMHz</t>
-  </si>
-  <si>
-    <t>MHz/nA</t>
-  </si>
-  <si>
-    <t>d18O3</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Date.x</t>
-  </si>
-  <si>
-    <t>Time.x</t>
-  </si>
-  <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>INDEXexcel</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>2SE (int.), d18O-2SE, d13C-2SE</t>
-  </si>
-  <si>
-    <t>\u03B418O \u2030 VSMOW vs UWC-3, d18O \u2030 VSMOW, d18_VSMOW, d18O [VSMOW],d18 VSMOW, \u03B418O \u2030 VSMOW, &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3, δ18O ‰ VSMOW vs UWC-3, d18O ‰ VSMOW, δ18O ‰ VSMOW</t>
+    <t>ascfilename</t>
+  </si>
+  <si>
+    <t>AnalysisName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,10 +317,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,20 +633,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -699,13 +657,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -713,16 +668,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -730,532 +682,378 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
       <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0573F6DE-58EE-1C4A-B936-B54EAAE292AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9173F3EB-C8B4-CC49-9863-F270CDBE60A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>ColNames</t>
   </si>
@@ -260,12 +260,6 @@
     <t>StdGroup</t>
   </si>
   <si>
-    <t>d13_C</t>
-  </si>
-  <si>
-    <t>d13C_m</t>
-  </si>
-  <si>
     <t>Yield 1MHz/nA</t>
   </si>
   <si>
@@ -312,6 +306,15 @@
   </si>
   <si>
     <t>\u03B418O \u2030 VSMOW vs UWC-3, d18O \u2030 VSMOW, d18_VSMOW, d18O [VSMOW],d18 VSMOW, \u03B418O \u2030 VSMOW, &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3, δ18O ‰ VSMOW vs UWC-3, d18O ‰ VSMOW, δ18O ‰ VSMOW</t>
+  </si>
+  <si>
+    <t>Comment, Comment..2</t>
+  </si>
+  <si>
+    <t>d13C_m, δ13C ‰ measured</t>
+  </si>
+  <si>
+    <t>d13_C, δ13C ‰ VPDB, d13C PDB, δ13C [‰, PDB]</t>
   </si>
 </sst>
 </file>
@@ -677,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,7 +705,7 @@
         <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -716,10 +719,10 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -727,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -736,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -745,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -754,7 +757,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -763,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -772,7 +775,7 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -790,7 +793,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,7 +810,7 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,7 +818,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -824,7 +827,7 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -841,7 +844,7 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -858,25 +861,25 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -894,7 +897,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -912,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -947,7 +950,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -965,7 +968,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -983,7 +986,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1001,7 +1004,7 @@
         <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1018,7 +1021,7 @@
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1035,15 +1038,15 @@
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -1052,7 +1055,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1061,7 +1064,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -1070,7 +1073,7 @@
         <v>53</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,7 +1087,7 @@
         <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,13 +1098,13 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1112,7 +1115,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1123,7 +1126,7 @@
         <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,7 +1137,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1145,7 +1148,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1156,7 +1159,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1167,7 +1170,7 @@
         <v>74</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,7 +1181,7 @@
         <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1189,7 +1192,7 @@
         <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1200,7 +1203,7 @@
         <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1211,7 +1214,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1222,40 +1225,40 @@
         <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9173F3EB-C8B4-CC49-9863-F270CDBE60A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06128AED-D552-5041-A3E9-4D8CBCE65DFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="940" windowWidth="27240" windowHeight="9520" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="460" yWindow="940" windowWidth="24360" windowHeight="15480" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>ColNames</t>
   </si>
@@ -56,45 +56,15 @@
     <t>SIMSmethods</t>
   </si>
   <si>
-    <t>File, Filename</t>
-  </si>
-  <si>
     <t>d18O10</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>16O (Gcps), 16O(E9 cps), 16O     (E9 cps), 16O (E9), 16O(E9)</t>
-  </si>
-  <si>
-    <t>IP(nA), IP(nA)  1.7 to 1.9, IP (nA)</t>
-  </si>
-  <si>
-    <t>Yield (Gcps/nA), Yield(E9cps/nA), Yield (E9cps/nA)</t>
-  </si>
-  <si>
-    <t>date, Date</t>
-  </si>
-  <si>
-    <t>time, Time</t>
-  </si>
-  <si>
-    <t>X, x</t>
-  </si>
-  <si>
-    <t>d18O10, d13C7</t>
-  </si>
-  <si>
-    <t>Y, y</t>
-  </si>
-  <si>
     <t>12CE6</t>
   </si>
   <si>
-    <t>12C (E6), 12C(E6)</t>
-  </si>
-  <si>
     <t>d13C7</t>
   </si>
   <si>
@@ -110,12 +80,6 @@
     <t>O16(E6)</t>
   </si>
   <si>
-    <t>DTFA-X, DTFA X</t>
-  </si>
-  <si>
-    <t>DTFA-Y, DTFA Y</t>
-  </si>
-  <si>
     <t>IMF</t>
   </si>
   <si>
@@ -149,18 +113,9 @@
     <t>DTFAY</t>
   </si>
   <si>
-    <t>Bias, IMF, Mass Bias (&lt;U+2030&gt;), Mass Bias (‰)</t>
-  </si>
-  <si>
-    <t>d18O ‰ raw, d18O_m, d18O_meas, d18_c, d18O meas, d18O ‰ measured, \u03B418O ‰ measured, &lt;U+03B4&gt;18O &lt;U+2030&gt; measured, δ18O ‰ measured</t>
-  </si>
-  <si>
     <t>Hyd</t>
   </si>
   <si>
-    <t>16OH/16O, 16O1H/16O, 13CH/13C</t>
-  </si>
-  <si>
     <t>13C (cps)</t>
   </si>
   <si>
@@ -266,9 +221,6 @@
     <t>d13CVPDB</t>
   </si>
   <si>
-    <t>2SD (ext.), Er (2S), 2SD, Std_1SD, Er(2S)</t>
-  </si>
-  <si>
     <t>YieldMHz</t>
   </si>
   <si>
@@ -302,19 +254,73 @@
     <t>Numeric</t>
   </si>
   <si>
-    <t>2SE (int.), d18O-2SE, d13C-2SE</t>
-  </si>
-  <si>
-    <t>\u03B418O \u2030 VSMOW vs UWC-3, d18O \u2030 VSMOW, d18_VSMOW, d18O [VSMOW],d18 VSMOW, \u03B418O \u2030 VSMOW, &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3, δ18O ‰ VSMOW vs UWC-3, d18O ‰ VSMOW, δ18O ‰ VSMOW</t>
-  </si>
-  <si>
-    <t>Comment, Comment..2</t>
-  </si>
-  <si>
-    <t>d13C_m, δ13C ‰ measured</t>
-  </si>
-  <si>
-    <t>d13_C, δ13C ‰ VPDB, d13C PDB, δ13C [‰, PDB]</t>
+    <t>File; Filename</t>
+  </si>
+  <si>
+    <t>Comment; Comment..2</t>
+  </si>
+  <si>
+    <t>\u03B418O \u2030 VSMOW vs UWC-3; d18O \u2030 VSMOW; d18_VSMOW; d18O [VSMOW],d18 VSMOW; \u03B418O \u2030 VSMOW; &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3; δ18O ‰ VSMOW vs UWC-3; d18O ‰ VSMOW; δ18O ‰ VSMOW</t>
+  </si>
+  <si>
+    <t>2SD (ext.); Er (2S); 2SD; Std_1SD; Er(2S)</t>
+  </si>
+  <si>
+    <t>Bias; IMF; Mass Bias (&lt;U+2030&gt;); Mass Bias (‰)</t>
+  </si>
+  <si>
+    <t>d18O ‰ raw; d18O_m; d18O_meas; d18_c; d18O meas; d18O ‰ measured; \u03B418O ‰ measured; &lt;U+03B4&gt;18O &lt;U+2030&gt; measured; δ18O ‰ measured</t>
+  </si>
+  <si>
+    <t>2SE (int.); d18O-2SE; d13C-2SE</t>
+  </si>
+  <si>
+    <t>16O (Gcps); 16O(E9 cps); 16O     (E9 cps); 16O (E9); 16O(E9)</t>
+  </si>
+  <si>
+    <t>IP(nA); IP(nA)  1.7 to 1.9; IP (nA)</t>
+  </si>
+  <si>
+    <t>Yield (Gcps/nA); Yield(E9cps/nA); Yield (E9cps/nA)</t>
+  </si>
+  <si>
+    <t>date; Date</t>
+  </si>
+  <si>
+    <t>time; Time</t>
+  </si>
+  <si>
+    <t>X; x</t>
+  </si>
+  <si>
+    <t>Y; y</t>
+  </si>
+  <si>
+    <t>DTFA-X; DTFA X</t>
+  </si>
+  <si>
+    <t>DTFA-Y; DTFA Y</t>
+  </si>
+  <si>
+    <t>16OH/16O; 16O1H/16O; 13CH/13C</t>
+  </si>
+  <si>
+    <t>12C (E6); 12C(E6)</t>
+  </si>
+  <si>
+    <t>d18O10; d13C7</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Mass; mass</t>
+  </si>
+  <si>
+    <t>d13C_m; δ13C ‰ measured; \u03B413C measured; \u03B413C \u2030 measured</t>
+  </si>
+  <si>
+    <t>d13_C; δ13C ‰ VPDB; d13C PDB; δ13C [‰, PDB]; \u03B413C [‰ PDB]; δ13C [‰, VPDB]; \u03B413C [‰, VPDB]; \u03B413C [\u2030, VPDB]; \u03B413C [\u2030, PDB]; ; \u03B413C [\u2030 PDB]</t>
   </si>
 </sst>
 </file>
@@ -678,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,10 +708,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -713,33 +719,33 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -748,16 +754,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -766,138 +772,138 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -906,359 +912,376 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06128AED-D552-5041-A3E9-4D8CBCE65DFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{456E1189-71D2-3047-984E-C65F5B691EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="940" windowWidth="24360" windowHeight="15480" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="460" yWindow="940" windowWidth="17620" windowHeight="15480" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>ColNames</t>
   </si>
@@ -321,6 +321,36 @@
   </si>
   <si>
     <t>d13_C; δ13C ‰ VPDB; d13C PDB; δ13C [‰, PDB]; \u03B413C [‰ PDB]; δ13C [‰, VPDB]; \u03B413C [‰, VPDB]; \u03B413C [\u2030, VPDB]; \u03B413C [\u2030, PDB]; ; \u03B413C [\u2030 PDB]</t>
+  </si>
+  <si>
+    <t>d18O10; d13C7; Ca; CaO</t>
+  </si>
+  <si>
+    <t>d18O10; Ca; CaO</t>
+  </si>
+  <si>
+    <t>d44Cameas</t>
+  </si>
+  <si>
+    <t>Ca; CaO</t>
+  </si>
+  <si>
+    <t>\u03B444Ca \u2030 measured</t>
+  </si>
+  <si>
+    <t>40Ca (Gcps)</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Ca40Cps</t>
+  </si>
+  <si>
+    <t>is_standard</t>
+  </si>
+  <si>
+    <t>Boolean</t>
   </si>
 </sst>
 </file>
@@ -684,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,7 +752,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -739,7 +769,7 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -775,7 +805,7 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -793,7 +823,7 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -827,7 +857,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -861,7 +891,7 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -897,7 +927,7 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -915,7 +945,7 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -932,7 +962,7 @@
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -950,7 +980,7 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -968,7 +998,7 @@
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -986,7 +1016,7 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1004,7 +1034,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -1021,7 +1051,7 @@
         <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -1282,6 +1312,54 @@
       </c>
       <c r="E39" s="2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{456E1189-71D2-3047-984E-C65F5B691EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5770D7-2FB2-3E46-8960-7552705C630F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="17620" windowHeight="15480" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>ColNames</t>
   </si>
@@ -717,7 +717,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1352,9 +1352,6 @@
       <c r="A42" t="s">
         <v>104</v>
       </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
       <c r="D42" t="s">
         <v>105</v>
       </c>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5770D7-2FB2-3E46-8960-7552705C630F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287DC71-2A12-BB4C-A80A-76A0C4956248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="17620" windowHeight="15480" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287DC71-2A12-BB4C-A80A-76A0C4956248}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97AF338-EA08-0A46-9569-86F38076FC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="940" windowWidth="17620" windowHeight="15480" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="107">
   <si>
     <t>ColNames</t>
   </si>
@@ -257,9 +257,6 @@
     <t>File; Filename</t>
   </si>
   <si>
-    <t>Comment; Comment..2</t>
-  </si>
-  <si>
     <t>\u03B418O \u2030 VSMOW vs UWC-3; d18O \u2030 VSMOW; d18_VSMOW; d18O [VSMOW],d18 VSMOW; \u03B418O \u2030 VSMOW; &lt;U+03B4&gt;18O &lt;U+2030&gt; VSMOW vs UWC-3; δ18O ‰ VSMOW vs UWC-3; d18O ‰ VSMOW; δ18O ‰ VSMOW</t>
   </si>
   <si>
@@ -351,6 +348,12 @@
   </si>
   <si>
     <t>Boolean</t>
+  </si>
+  <si>
+    <t>Comment; Comment...2</t>
+  </si>
+  <si>
+    <t>REQUIRED</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,14 +720,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1851B6-D3C4-5D4B-A083-B3E85925BA08}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -743,6 +747,9 @@
       <c r="E1" t="s">
         <v>70</v>
       </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -752,13 +759,16 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -766,10 +776,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -777,14 +787,16 @@
       <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -795,17 +807,19 @@
       <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -813,23 +827,28 @@
       <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>72</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -837,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -847,6 +866,9 @@
       </c>
       <c r="E7" t="s">
         <v>72</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,16 +876,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>72</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -871,7 +896,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -881,6 +906,9 @@
       </c>
       <c r="E9" t="s">
         <v>72</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -888,10 +916,10 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -899,7 +927,9 @@
       <c r="E10" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -917,17 +947,19 @@
       <c r="E11" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -935,23 +967,28 @@
       <c r="E12" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>71</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,10 +996,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -970,17 +1007,19 @@
       <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -988,17 +1027,19 @@
       <c r="E15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1006,17 +1047,19 @@
       <c r="E16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1024,17 +1067,19 @@
       <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -1042,22 +1087,28 @@
       <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="F18" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,16 +1116,19 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1082,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1092,6 +1146,9 @@
       </c>
       <c r="E21" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1099,7 +1156,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1110,14 +1167,16 @@
       <c r="E22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1127,6 +1186,9 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1237,7 +1299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1248,7 +1310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1259,7 +1321,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1270,7 +1332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1281,7 +1343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1292,7 +1354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1303,7 +1365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1314,15 +1376,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -1330,16 +1392,19 @@
       <c r="E40" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>102</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -1347,13 +1412,16 @@
       <c r="E41" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
         <v>104</v>
-      </c>
-      <c r="D42" t="s">
-        <v>105</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macrostrat/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97AF338-EA08-0A46-9569-86F38076FC96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03448A8E-A1CD-4D4A-99B0-8DEFE0AD8AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="940" windowWidth="17620" windowHeight="15480" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
   <sheets>
     <sheet name="WiscSIMSColumnDictionary" sheetId="1" r:id="rId1"/>
@@ -263,9 +263,6 @@
     <t>2SD (ext.); Er (2S); 2SD; Std_1SD; Er(2S)</t>
   </si>
   <si>
-    <t>Bias; IMF; Mass Bias (&lt;U+2030&gt;); Mass Bias (‰)</t>
-  </si>
-  <si>
     <t>d18O ‰ raw; d18O_m; d18O_meas; d18_c; d18O meas; d18O ‰ measured; \u03B418O ‰ measured; &lt;U+03B4&gt;18O &lt;U+2030&gt; measured; δ18O ‰ measured</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>d13C_m; δ13C ‰ measured; \u03B413C measured; \u03B413C \u2030 measured</t>
   </si>
   <si>
-    <t>d13_C; δ13C ‰ VPDB; d13C PDB; δ13C [‰, PDB]; \u03B413C [‰ PDB]; δ13C [‰, VPDB]; \u03B413C [‰, VPDB]; \u03B413C [\u2030, VPDB]; \u03B413C [\u2030, PDB]; ; \u03B413C [\u2030 PDB]</t>
-  </si>
-  <si>
     <t>d18O10; d13C7; Ca; CaO</t>
   </si>
   <si>
@@ -354,6 +348,12 @@
   </si>
   <si>
     <t>REQUIRED</t>
+  </si>
+  <si>
+    <t>d13_C; δ13C ‰ VPDB; d13C PDB; δ13C [‰, PDB]; \u03B413C [‰ PDB]; δ13C [‰, VPDB]; \u03B413C [‰, VPDB]; \u03B413C [\u2030, VPDB]; \u03B413C [\u2030, PDB]; ; \u03B413C [\u2030 PDB]; δ13C ‰ VPDB</t>
+  </si>
+  <si>
+    <t>Bias; IMF; Mass Bias (&lt;U+2030&gt;); Mass Bias (‰); Mass Bias (‰)</t>
   </si>
 </sst>
 </file>
@@ -721,17 +721,17 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.3125" customWidth="1"/>
+    <col min="3" max="3" width="20.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,10 +748,10 @@
         <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -759,7 +759,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -771,15 +771,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -831,15 +831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -851,12 +851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -871,15 +871,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -891,12 +891,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -911,15 +911,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -931,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -951,15 +951,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -971,15 +971,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -991,15 +991,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1011,15 +1011,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -1031,15 +1031,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1051,15 +1051,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1071,15 +1071,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -1091,15 +1091,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
         <v>91</v>
       </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -1111,15 +1111,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -1131,12 +1131,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
@@ -1151,12 +1151,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1171,12 +1171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1376,15 +1376,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -1396,15 +1396,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -1416,12 +1416,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>

--- a/Test-Data/WiscSIMSColumnDictionary.xlsx
+++ b/Test-Data/WiscSIMSColumnDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03448A8E-A1CD-4D4A-99B0-8DEFE0AD8AB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F31D58-CE6D-4721-A219-17B9F29D3511}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D6E065B3-28E8-C041-887D-7F2DC3F0674B}"/>
   </bookViews>
@@ -311,9 +311,6 @@
     <t>Mass; mass</t>
   </si>
   <si>
-    <t>d13C_m; δ13C ‰ measured; \u03B413C measured; \u03B413C \u2030 measured</t>
-  </si>
-  <si>
     <t>d18O10; d13C7; Ca; CaO</t>
   </si>
   <si>
@@ -350,10 +347,13 @@
     <t>REQUIRED</t>
   </si>
   <si>
-    <t>d13_C; δ13C ‰ VPDB; d13C PDB; δ13C [‰, PDB]; \u03B413C [‰ PDB]; δ13C [‰, VPDB]; \u03B413C [‰, VPDB]; \u03B413C [\u2030, VPDB]; \u03B413C [\u2030, PDB]; ; \u03B413C [\u2030 PDB]; δ13C ‰ VPDB</t>
-  </si>
-  <si>
     <t>Bias; IMF; Mass Bias (&lt;U+2030&gt;); Mass Bias (‰); Mass Bias (‰)</t>
+  </si>
+  <si>
+    <t>d13_C; δ13C ‰ VPDB; d13C PDB; δ13C [‰, PDB]; \u03B413C [‰ PDB]; δ13C [‰, VPDB]; \u03B413C [‰, VPDB]; \u03B413C [\u2030, VPDB]; \u03B413C [\u2030, PDB]; ; \u03B413C [\u2030 PDB]; δ13C ‰ VPDB; d13C ‰ VPBD</t>
+  </si>
+  <si>
+    <t>d13C_m; δ13C ‰ measured; \u03B413C measured; \u03B413C \u2030 measured; d13C ‰ measured</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -748,7 +748,7 @@
         <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -759,7 +759,7 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -776,10 +776,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -819,7 +819,7 @@
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -836,10 +836,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
         <v>29</v>
@@ -879,7 +879,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>29</v>
@@ -919,7 +919,7 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -959,7 +959,7 @@
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -979,7 +979,7 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1019,7 +1019,7 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
         <v>36</v>
@@ -1039,7 +1039,7 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1059,7 +1059,7 @@
         <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -1079,7 +1079,7 @@
         <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
@@ -1099,7 +1099,7 @@
         <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
         <v>37</v>
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>29</v>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
       </c>
       <c r="D41" t="s">
         <v>30</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
         <v>101</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>71</v>
